--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -40,7 +40,7 @@
     <author>dan</author>
   </authors>
   <commentList>
-    <comment ref="R3" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="0">
+    <comment ref="Z3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="0">
+    <comment ref="AA3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="152">
   <si>
     <t>#</t>
   </si>
@@ -143,6 +143,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>图标</t>
+  </si>
+  <si>
     <t>活动类型</t>
   </si>
   <si>
@@ -329,6 +332,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>ActivityType</t>
   </si>
   <si>
@@ -359,13 +365,13 @@
     <t>IntervalDay</t>
   </si>
   <si>
-    <t>show_item_list</t>
+    <t>ShowItemList</t>
   </si>
   <si>
     <t>Ext</t>
   </si>
   <si>
-    <t>DataList</t>
+    <t>DataListSource</t>
   </si>
   <si>
     <r>
@@ -528,13 +534,13 @@
     <t>首充</t>
   </si>
   <si>
-    <t>"2","1"</t>
+    <t>2;1</t>
   </si>
   <si>
     <t>礼包商城</t>
   </si>
   <si>
-    <t>"1","1"</t>
+    <t>1;1</t>
   </si>
   <si>
     <t>运营活动</t>
@@ -1276,7 +1282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1304,28 +1310,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1763,14 +1766,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:BM11"/>
+  <dimension ref="A2:BN11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1782,57 +1785,54 @@
     <col min="5" max="5" width="18.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.5583333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="96.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="35.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="2" customWidth="1"/>
-    <col min="19" max="20" width="12" style="3" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="4" customWidth="1"/>
-    <col min="22" max="22" width="10.875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="14" style="2" customWidth="1"/>
-    <col min="24" max="24" width="32.7916666666667" style="2" customWidth="1"/>
-    <col min="25" max="25" width="26.6333333333333" style="2" customWidth="1"/>
-    <col min="26" max="26" width="27.1166666666667" style="2" customWidth="1"/>
-    <col min="27" max="27" width="27.25" style="2" customWidth="1"/>
-    <col min="28" max="28" width="30" style="2" customWidth="1"/>
-    <col min="29" max="29" width="19.375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="25.125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="31.375" style="2" customWidth="1"/>
-    <col min="32" max="32" width="17.625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="37.6833333333333" style="2" customWidth="1"/>
-    <col min="34" max="34" width="35.575" style="2" customWidth="1"/>
-    <col min="35" max="35" width="19.625" style="2" customWidth="1"/>
-    <col min="36" max="36" width="35.675" style="2" customWidth="1"/>
-    <col min="37" max="37" width="36.825" style="2" customWidth="1"/>
-    <col min="38" max="38" width="27.6916666666667" style="2" customWidth="1"/>
-    <col min="39" max="39" width="11.725" style="2" customWidth="1"/>
-    <col min="40" max="40" width="10.625" style="2" customWidth="1"/>
-    <col min="41" max="41" width="20.375" style="2" customWidth="1"/>
-    <col min="42" max="43" width="10.625" style="2" customWidth="1"/>
-    <col min="44" max="44" width="26.625" style="2" customWidth="1"/>
-    <col min="45" max="61" width="10.625" style="2" customWidth="1"/>
-    <col min="62" max="62" width="5.875" style="2" customWidth="1"/>
-    <col min="63" max="16384" width="9" style="2"/>
+    <col min="8" max="9" width="13.5583333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="96.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="35.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="2" customWidth="1"/>
+    <col min="20" max="21" width="12" style="3" customWidth="1"/>
+    <col min="22" max="22" width="13.25" style="4" customWidth="1"/>
+    <col min="23" max="23" width="10.875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14" style="2" customWidth="1"/>
+    <col min="25" max="25" width="32.7916666666667" style="2" customWidth="1"/>
+    <col min="26" max="26" width="26.6333333333333" style="2" customWidth="1"/>
+    <col min="27" max="27" width="27.1166666666667" style="2" customWidth="1"/>
+    <col min="28" max="28" width="27.25" style="2" customWidth="1"/>
+    <col min="29" max="29" width="30" style="2" customWidth="1"/>
+    <col min="30" max="30" width="19.375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="25.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="31.375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="17.625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="37.6833333333333" style="2" customWidth="1"/>
+    <col min="35" max="35" width="35.575" style="2" customWidth="1"/>
+    <col min="36" max="36" width="19.625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="35.675" style="2" customWidth="1"/>
+    <col min="38" max="38" width="36.825" style="2" customWidth="1"/>
+    <col min="39" max="39" width="27.6916666666667" style="2" customWidth="1"/>
+    <col min="40" max="40" width="11.725" style="2" customWidth="1"/>
+    <col min="41" max="41" width="10.625" style="2" customWidth="1"/>
+    <col min="42" max="42" width="20.375" style="2" customWidth="1"/>
+    <col min="43" max="44" width="10.625" style="2" customWidth="1"/>
+    <col min="45" max="45" width="26.625" style="2" customWidth="1"/>
+    <col min="46" max="62" width="10.625" style="2" customWidth="1"/>
+    <col min="63" max="63" width="5.875" style="2" customWidth="1"/>
+    <col min="64" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:65">
+    <row r="2" spans="5:66">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="Y2" s="2" t="s">
@@ -1958,8 +1958,11 @@
       <c r="BM2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="BN2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="3:65">
+    <row r="3" spans="3:66">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1981,13 +1984,13 @@
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -2020,379 +2023,388 @@
       <c r="V3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AD3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="17" t="s">
+      <c r="AG3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="17" t="s">
+      <c r="AH3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="17" t="s">
+      <c r="AI3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AK3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AL3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AM3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AN3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AO3" s="17" t="s">
+      <c r="AO3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AP3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AQ3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AR3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AS3" s="17" t="s">
+      <c r="AS3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AT3" s="17" t="s">
+      <c r="AT3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="17" t="s">
+      <c r="AU3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AV3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AW3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AX3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AY3" s="17" t="s">
+      <c r="AY3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AZ3" s="17" t="s">
+      <c r="AZ3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="BA3" s="17" t="s">
+      <c r="BA3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BB3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BC3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BD3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BE3" s="17" t="s">
+      <c r="BE3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="BF3" s="17" t="s">
+      <c r="BF3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="BG3" s="17" t="s">
+      <c r="BG3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BH3" s="12" t="s">
+      <c r="BH3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BI3" s="12" t="s">
+      <c r="BI3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BJ3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="BK3" s="17" t="s">
+      <c r="BK3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BL3" s="17" t="s">
+      <c r="BL3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BM3" s="17" t="s">
+      <c r="BM3" s="16" t="s">
         <v>63</v>
       </c>
+      <c r="BN3" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="4" spans="3:65">
+    <row r="4" spans="3:66">
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="O4" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="Q4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="U4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="V4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="W4" s="10" t="s">
         <v>82</v>
       </c>
+      <c r="X4" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="Y4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AX4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AZ4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BC4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BD4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BF4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BH4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BL4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BM4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="5" spans="3:23">
+    <row r="5" spans="3:24">
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="M5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="U5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="V5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="W5" s="11" t="s">
+      <c r="S5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>126</v>
       </c>
+      <c r="U5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:65">
+    <row r="6" s="2" customFormat="1" spans="1:66">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5">
@@ -2408,125 +2420,126 @@
         <v>10001</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="5">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
         <f>VLOOKUP(E:E,运营活动,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="5">
-        <f>VLOOKUP(J:J,活动窗口,2,FALSE)</f>
+      <c r="K6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="5">
+        <f>VLOOKUP(K:K,活动窗口,2,FALSE)</f>
         <v>1005</v>
       </c>
-      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="8" t="str">
+      <c r="O6" s="5"/>
+      <c r="P6" s="8" t="str">
         <f>VLOOKUP(E:E,运营活动,3,FALSE)</f>
         <v>商品id,弹窗等级</v>
       </c>
-      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" s="3">
         <v>-1</v>
       </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(Y:Y),_xlfn.SINGLE(Z:Z)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AB:AB),_xlfn.SINGLE(AC:AC)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AE:AE),_xlfn.SINGLE(AF:AF)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AH:AH),_xlfn.SINGLE(AI:AI)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AK:AK),_xlfn.SINGLE(AL:AL)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AN:AN),_xlfn.SINGLE(AO:AO)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AQ:AQ),_xlfn.SINGLE(AR:AR)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AT:AT),_xlfn.SINGLE(AU:AU)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AW:AW),_xlfn.SINGLE(AX:AX)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AZ:AZ),_xlfn.SINGLE(BA:BA)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BC:BC),_xlfn.SINGLE(BD:BD)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BF:BF),_xlfn.SINGLE(BG:BG)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BI:BI),_xlfn.SINGLE(BJ:BJ)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BL:BL),_xlfn.SINGLE(BM:BM)))</f>
+      <c r="U6" s="3"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="3" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(Z:Z),_xlfn.SINGLE(AA:AA)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AC:AC),_xlfn.SINGLE(AD:AD)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AF:AF),_xlfn.SINGLE(AG:AG)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AI:AI),_xlfn.SINGLE(AJ:AJ)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AL:AL),_xlfn.SINGLE(AM:AM)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AO:AO),_xlfn.SINGLE(AP:AP)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AR:AR),_xlfn.SINGLE(AS:AS)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AU:AU),_xlfn.SINGLE(AV:AV)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AX:AX),_xlfn.SINGLE(AY:AY)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BA:BA),_xlfn.SINGLE(BB:BB)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BD:BD),_xlfn.SINGLE(BE:BE)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BG:BG),_xlfn.SINGLE(BH:BH)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BJ:BJ),_xlfn.SINGLE(BK:BK)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BM:BM),_xlfn.SINGLE(BN:BN)))</f>
         <v/>
       </c>
-      <c r="X6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AW6" s="18"/>
-      <c r="AX6" s="18"/>
-      <c r="AY6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AZ6" s="18"/>
-      <c r="BA6" s="18"/>
-      <c r="BB6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BC6" s="18"/>
-      <c r="BD6" s="18"/>
-      <c r="BE6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BF6" s="18"/>
-      <c r="BG6" s="18"/>
-      <c r="BH6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BI6" s="18"/>
-      <c r="BJ6" s="18"/>
-      <c r="BK6" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BL6" s="18"/>
-      <c r="BM6" s="18"/>
+      <c r="Y6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BD6" s="17"/>
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BG6" s="17"/>
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BJ6" s="17"/>
+      <c r="BK6" s="17"/>
+      <c r="BL6" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BM6" s="17"/>
+      <c r="BN6" s="17"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:65">
+    <row r="7" s="2" customFormat="1" spans="1:66">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
@@ -2542,125 +2555,126 @@
         <v>10002</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="5">
+      <c r="I7" s="7"/>
+      <c r="J7" s="5">
         <f>VLOOKUP(E:E,运营活动,2,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="5">
-        <f>VLOOKUP(J:J,活动窗口,2,FALSE)</f>
+      <c r="K7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="5">
+        <f>VLOOKUP(K:K,活动窗口,2,FALSE)</f>
         <v>1003</v>
       </c>
-      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="8" t="str">
+      <c r="O7" s="3"/>
+      <c r="P7" s="8" t="str">
         <f>VLOOKUP(E:E,运营活动,3,FALSE)</f>
         <v>个人积分道具ID,商品id,积分显示类型,最大等级的积分,礼包积分,展示重要奖励多语言,礼包奖励描述多语言,</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="S7" s="6">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T7" s="6">
         <v>-1</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(Y:Y),_xlfn.SINGLE(Z:Z)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AB:AB),_xlfn.SINGLE(AC:AC)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AE:AE),_xlfn.SINGLE(AF:AF)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AH:AH),_xlfn.SINGLE(AI:AI)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AK:AK),_xlfn.SINGLE(AL:AL)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AN:AN),_xlfn.SINGLE(AO:AO)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AQ:AQ),_xlfn.SINGLE(AR:AR)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AT:AT),_xlfn.SINGLE(AU:AU)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AW:AW),_xlfn.SINGLE(AX:AX)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AZ:AZ),_xlfn.SINGLE(BA:BA)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BC:BC),_xlfn.SINGLE(BD:BD)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BF:BF),_xlfn.SINGLE(BG:BG)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BI:BI),_xlfn.SINGLE(BJ:BJ)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BL:BL),_xlfn.SINGLE(BM:BM)))</f>
+      <c r="U7" s="6"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="3" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(Z:Z),_xlfn.SINGLE(AA:AA)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AC:AC),_xlfn.SINGLE(AD:AD)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AF:AF),_xlfn.SINGLE(AG:AG)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AI:AI),_xlfn.SINGLE(AJ:AJ)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AL:AL),_xlfn.SINGLE(AM:AM)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AO:AO),_xlfn.SINGLE(AP:AP)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AR:AR),_xlfn.SINGLE(AS:AS)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AU:AU),_xlfn.SINGLE(AV:AV)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AX:AX),_xlfn.SINGLE(AY:AY)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BA:BA),_xlfn.SINGLE(BB:BB)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BD:BD),_xlfn.SINGLE(BE:BE)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BG:BG),_xlfn.SINGLE(BH:BH)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BJ:BJ),_xlfn.SINGLE(BK:BK)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BM:BM),_xlfn.SINGLE(BN:BN)))</f>
         <v/>
       </c>
-      <c r="X7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AZ7" s="18"/>
-      <c r="BA7" s="18"/>
-      <c r="BB7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BC7" s="18"/>
-      <c r="BD7" s="18"/>
-      <c r="BE7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BF7" s="18"/>
-      <c r="BG7" s="18"/>
-      <c r="BH7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BI7" s="18"/>
-      <c r="BJ7" s="18"/>
-      <c r="BK7" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BL7" s="18"/>
-      <c r="BM7" s="18"/>
+      <c r="Y7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BD7" s="17"/>
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BG7" s="17"/>
+      <c r="BH7" s="17"/>
+      <c r="BI7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BJ7" s="17"/>
+      <c r="BK7" s="17"/>
+      <c r="BL7" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BM7" s="17"/>
+      <c r="BN7" s="17"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:65">
+    <row r="8" s="2" customFormat="1" spans="1:66">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
@@ -2676,125 +2690,126 @@
         <v>10003</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="5">
+      <c r="I8" s="3"/>
+      <c r="J8" s="5">
         <f>VLOOKUP(E:E,运营活动,2,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="5">
-        <f>VLOOKUP(J:J,活动窗口,2,FALSE)</f>
+      <c r="K8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="5">
+        <f>VLOOKUP(K:K,活动窗口,2,FALSE)</f>
         <v>1003</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="3"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="8" t="str">
+      <c r="O8" s="3"/>
+      <c r="P8" s="8" t="str">
         <f>VLOOKUP(E:E,运营活动,3,FALSE)</f>
         <v>商品id,生效的天数</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="S8" s="6">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8" s="6">
         <v>-1</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(Y:Y),_xlfn.SINGLE(Z:Z)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AB:AB),_xlfn.SINGLE(AC:AC)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AE:AE),_xlfn.SINGLE(AF:AF)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AH:AH),_xlfn.SINGLE(AI:AI)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AK:AK),_xlfn.SINGLE(AL:AL)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AN:AN),_xlfn.SINGLE(AO:AO)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AQ:AQ),_xlfn.SINGLE(AR:AR)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AT:AT),_xlfn.SINGLE(AU:AU)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AW:AW),_xlfn.SINGLE(AX:AX)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AZ:AZ),_xlfn.SINGLE(BA:BA)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BC:BC),_xlfn.SINGLE(BD:BD)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BF:BF),_xlfn.SINGLE(BG:BG)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BI:BI),_xlfn.SINGLE(BJ:BJ)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BL:BL),_xlfn.SINGLE(BM:BM)))</f>
+      <c r="U8" s="6"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="3" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(Z:Z),_xlfn.SINGLE(AA:AA)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AC:AC),_xlfn.SINGLE(AD:AD)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AF:AF),_xlfn.SINGLE(AG:AG)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AI:AI),_xlfn.SINGLE(AJ:AJ)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AL:AL),_xlfn.SINGLE(AM:AM)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AO:AO),_xlfn.SINGLE(AP:AP)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AR:AR),_xlfn.SINGLE(AS:AS)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AU:AU),_xlfn.SINGLE(AV:AV)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AX:AX),_xlfn.SINGLE(AY:AY)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BA:BA),_xlfn.SINGLE(BB:BB)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BD:BD),_xlfn.SINGLE(BE:BE)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BG:BG),_xlfn.SINGLE(BH:BH)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BJ:BJ),_xlfn.SINGLE(BK:BK)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BM:BM),_xlfn.SINGLE(BN:BN)))</f>
         <v/>
       </c>
-      <c r="X8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="18"/>
-      <c r="AS8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AT8" s="18"/>
-      <c r="AU8" s="18"/>
-      <c r="AV8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AW8" s="18"/>
-      <c r="AX8" s="18"/>
-      <c r="AY8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AZ8" s="18"/>
-      <c r="BA8" s="18"/>
-      <c r="BB8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BC8" s="18"/>
-      <c r="BD8" s="18"/>
-      <c r="BE8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BF8" s="18"/>
-      <c r="BG8" s="18"/>
-      <c r="BH8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BI8" s="18"/>
-      <c r="BJ8" s="18"/>
-      <c r="BK8" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BL8" s="18"/>
-      <c r="BM8" s="18"/>
+      <c r="Y8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BD8" s="17"/>
+      <c r="BE8" s="17"/>
+      <c r="BF8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BG8" s="17"/>
+      <c r="BH8" s="17"/>
+      <c r="BI8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BJ8" s="17"/>
+      <c r="BK8" s="17"/>
+      <c r="BL8" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BM8" s="17"/>
+      <c r="BN8" s="17"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:65">
+    <row r="9" s="2" customFormat="1" spans="1:66">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
@@ -2810,125 +2825,126 @@
         <v>10004</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="5">
+      <c r="I9" s="3"/>
+      <c r="J9" s="5">
         <f>VLOOKUP(E:E,运营活动,2,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="5">
-        <f>VLOOKUP(J:J,活动窗口,2,FALSE)</f>
+      <c r="K9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="5">
+        <f>VLOOKUP(K:K,活动窗口,2,FALSE)</f>
         <v>1003</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="8" t="str">
+      <c r="O9" s="3"/>
+      <c r="P9" s="8" t="str">
         <f>VLOOKUP(E:E,运营活动,3,FALSE)</f>
         <v>商品id</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="S9" s="6">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T9" s="6">
         <v>-1</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(Y:Y),_xlfn.SINGLE(Z:Z)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AB:AB),_xlfn.SINGLE(AC:AC)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AE:AE),_xlfn.SINGLE(AF:AF)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AH:AH),_xlfn.SINGLE(AI:AI)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AK:AK),_xlfn.SINGLE(AL:AL)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AN:AN),_xlfn.SINGLE(AO:AO)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AQ:AQ),_xlfn.SINGLE(AR:AR)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AT:AT),_xlfn.SINGLE(AU:AU)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AW:AW),_xlfn.SINGLE(AX:AX)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AZ:AZ),_xlfn.SINGLE(BA:BA)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BC:BC),_xlfn.SINGLE(BD:BD)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BF:BF),_xlfn.SINGLE(BG:BG)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BI:BI),_xlfn.SINGLE(BJ:BJ)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BL:BL),_xlfn.SINGLE(BM:BM)))</f>
+      <c r="U9" s="6"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="3" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(Z:Z),_xlfn.SINGLE(AA:AA)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AC:AC),_xlfn.SINGLE(AD:AD)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AF:AF),_xlfn.SINGLE(AG:AG)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AI:AI),_xlfn.SINGLE(AJ:AJ)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AL:AL),_xlfn.SINGLE(AM:AM)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AO:AO),_xlfn.SINGLE(AP:AP)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AR:AR),_xlfn.SINGLE(AS:AS)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AU:AU),_xlfn.SINGLE(AV:AV)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AX:AX),_xlfn.SINGLE(AY:AY)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BA:BA),_xlfn.SINGLE(BB:BB)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BD:BD),_xlfn.SINGLE(BE:BE)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BG:BG),_xlfn.SINGLE(BH:BH)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BJ:BJ),_xlfn.SINGLE(BK:BK)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BM:BM),_xlfn.SINGLE(BN:BN)))</f>
         <v/>
       </c>
-      <c r="X9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="18"/>
-      <c r="AY9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BF9" s="18"/>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="18"/>
-      <c r="BK9" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BL9" s="18"/>
-      <c r="BM9" s="18"/>
+      <c r="Y9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="17"/>
+      <c r="BI9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BJ9" s="17"/>
+      <c r="BK9" s="17"/>
+      <c r="BL9" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BM9" s="17"/>
+      <c r="BN9" s="17"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:65">
+    <row r="10" s="2" customFormat="1" spans="1:66">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
@@ -2944,128 +2960,129 @@
         <v>10005</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="5">
+      <c r="I10" s="3"/>
+      <c r="J10" s="5">
         <f>VLOOKUP(E:E,运营活动,2,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" s="5">
-        <f>VLOOKUP(J:J,活动窗口,2,FALSE)</f>
+      <c r="K10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="5">
+        <f>VLOOKUP(K:K,活动窗口,2,FALSE)</f>
         <v>1003</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="8" t="str">
+      <c r="O10" s="3"/>
+      <c r="P10" s="8" t="str">
         <f>VLOOKUP(E:E,运营活动,3,FALSE)</f>
         <v>商品id</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="S10" s="6">
+      <c r="Q10" s="14"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" s="6">
         <v>-1</v>
       </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(Y:Y),_xlfn.SINGLE(Z:Z)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AB:AB),_xlfn.SINGLE(AC:AC)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AE:AE),_xlfn.SINGLE(AF:AF)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AH:AH),_xlfn.SINGLE(AI:AI)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AK:AK),_xlfn.SINGLE(AL:AL)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AN:AN),_xlfn.SINGLE(AO:AO)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AQ:AQ),_xlfn.SINGLE(AR:AR)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AT:AT),_xlfn.SINGLE(AU:AU)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AW:AW),_xlfn.SINGLE(AX:AX)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AZ:AZ),_xlfn.SINGLE(BA:BA)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BC:BC),_xlfn.SINGLE(BD:BD)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BF:BF),_xlfn.SINGLE(BG:BG)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BI:BI),_xlfn.SINGLE(BJ:BJ)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BL:BL),_xlfn.SINGLE(BM:BM)))</f>
+      <c r="U10" s="6"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="3" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(Z:Z),_xlfn.SINGLE(AA:AA)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AC:AC),_xlfn.SINGLE(AD:AD)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AF:AF),_xlfn.SINGLE(AG:AG)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AI:AI),_xlfn.SINGLE(AJ:AJ)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AL:AL),_xlfn.SINGLE(AM:AM)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AO:AO),_xlfn.SINGLE(AP:AP)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AR:AR),_xlfn.SINGLE(AS:AS)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AU:AU),_xlfn.SINGLE(AV:AV)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(AX:AX),_xlfn.SINGLE(AY:AY)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BA:BA),_xlfn.SINGLE(BB:BB)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BD:BD),_xlfn.SINGLE(BE:BE)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BG:BG),_xlfn.SINGLE(BH:BH)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BJ:BJ),_xlfn.SINGLE(BK:BK)),_xlfn.TEXTJOIN("|",TRUE,_xlfn.SINGLE(BM:BM),_xlfn.SINGLE(BN:BN)))</f>
         <v/>
       </c>
-      <c r="X10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BF10" s="18"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="18"/>
-      <c r="BK10" s="8" t="str">
-        <f>VLOOKUP(E:E,运营活动,4)</f>
-        <v>无</v>
-      </c>
-      <c r="BL10" s="18"/>
-      <c r="BM10" s="18"/>
+      <c r="Y10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BD10" s="17"/>
+      <c r="BE10" s="17"/>
+      <c r="BF10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BG10" s="17"/>
+      <c r="BH10" s="17"/>
+      <c r="BI10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BJ10" s="17"/>
+      <c r="BK10" s="17"/>
+      <c r="BL10" s="8" t="str">
+        <f>VLOOKUP(E:E,运营活动,4)</f>
+        <v>无</v>
+      </c>
+      <c r="BM10" s="17"/>
+      <c r="BN10" s="17"/>
     </row>
-    <row r="11" spans="21:23">
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="15"/>
+    <row r="11" spans="22:24">
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D7">
@@ -3094,7 +3111,7 @@
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="如果是修改之前的活动数据 ID必须与之前的ID一致&#10;新增活动可以新增ID" sqref="D6 F6 D10 F10 C6:C10 D7:D9 F7:F9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 G11:G68 G69:G1048576 J7:J10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 G11:G68 G69:G1048576 K7:K10">
       <formula1>'#参数'!$H$2:$H$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3127,36 +3144,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I2" s="1">
         <v>1001</v>
@@ -3164,19 +3181,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I3">
         <v>2001</v>
@@ -3184,19 +3201,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I4">
         <v>1003</v>
@@ -3204,19 +3221,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I5">
         <v>1004</v>
@@ -3224,19 +3241,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I6">
         <v>1005</v>
@@ -3244,12 +3261,12 @@
     </row>
     <row r="7" spans="8:8">
       <c r="H7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="H8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
